--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/10.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/10.xlsx
@@ -479,13 +479,13 @@
         <v>0.06265928739598195</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.903003477833542</v>
+        <v>-1.870207433124122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2155681912643727</v>
+        <v>0.1123671730758943</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03215467511472696</v>
+        <v>-0.01514223368437794</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.08318934155638164</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.012167690478586</v>
+        <v>-2.003494618455228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09084063271074835</v>
+        <v>0.03892174502324667</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02274733460274947</v>
+        <v>-0.0738989420789021</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.104795841169715</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.24093246846851</v>
+        <v>-2.217135193423831</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07512724631568814</v>
+        <v>0.04351505763983629</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03120449470653804</v>
+        <v>-0.07756090582209745</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1199373952684441</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.287968331217967</v>
+        <v>-2.291086245717503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1117914079570441</v>
+        <v>0.06098135605987043</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03147407964566069</v>
+        <v>-0.07924184720721508</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1262245743695118</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.255461388909326</v>
+        <v>-2.274106663997514</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08066471613988375</v>
+        <v>0.06053245444178386</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02996696565341623</v>
+        <v>-0.09215386793397147</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1243596480587358</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.961599777090081</v>
+        <v>-1.977219845621599</v>
       </c>
       <c r="F7" t="n">
-        <v>0.182108552858651</v>
+        <v>0.1868817920748813</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04940818722476058</v>
+        <v>-0.08547706628561048</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1186754123608921</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.78089552858655</v>
+        <v>-1.810616963164483</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1671825740572725</v>
+        <v>0.1612382871416859</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.006933921216702573</v>
+        <v>-0.06436283229794622</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1178973226049754</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.333750482049014</v>
+        <v>-1.380137389198411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1969674403855872</v>
+        <v>0.1653589112337958</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03383752226805941</v>
+        <v>-0.07784390901610853</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.132500840944212</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7890108081836673</v>
+        <v>-0.9186488381057903</v>
       </c>
       <c r="F10" t="n">
-        <v>0.201964520490184</v>
+        <v>0.1746955769534551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0399488514428904</v>
+        <v>0.01829300789427385</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1718553296598271</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4165365203383656</v>
+        <v>-0.5992248408033579</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09566205566044175</v>
+        <v>0.1067156480851468</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05310545036102275</v>
+        <v>0.03917242242139012</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2416929180312614</v>
       </c>
       <c r="E12" t="n">
-        <v>0.191290908647093</v>
+        <v>-0.0779335673555905</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05512314396588988</v>
+        <v>-0.05193203898514404</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1687305527348591</v>
+        <v>0.1531781853984604</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3449579870866352</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6508472310357755</v>
+        <v>0.2946468466874654</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1398478350936393</v>
+        <v>-0.1455993870753735</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2312187558297279</v>
+        <v>0.2133151442844654</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4799497900070042</v>
       </c>
       <c r="E14" t="n">
-        <v>1.092875653016072</v>
+        <v>0.663313399747829</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4462829616640451</v>
+        <v>-0.4267837976284097</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3660642884899258</v>
+        <v>0.3298020645745467</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6409032503474295</v>
       </c>
       <c r="E15" t="n">
-        <v>1.597473397541245</v>
+        <v>1.102188531829338</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8104659878296337</v>
+        <v>-0.7574888877679742</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4162534411381699</v>
+        <v>0.4008712416705839</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8195037563107517</v>
       </c>
       <c r="E16" t="n">
-        <v>2.208211367996145</v>
+        <v>1.639310906362778</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.025575861708523</v>
+        <v>-0.9691185542653387</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5307239636709222</v>
+        <v>0.5090955665527593</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.007716451587474</v>
       </c>
       <c r="E17" t="n">
-        <v>2.628683363498136</v>
+        <v>2.032657899607752</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.358798704401703</v>
+        <v>-1.261874379897639</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5787143522794896</v>
+        <v>0.5546206557859111</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.196146309471123</v>
       </c>
       <c r="E18" t="n">
-        <v>3.086265372656185</v>
+        <v>2.39231348458984</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.58616005491443</v>
+        <v>-1.466285025265013</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693482516102495</v>
+        <v>0.6571410024991386</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.375993250131492</v>
       </c>
       <c r="E19" t="n">
-        <v>3.313565731101237</v>
+        <v>2.578236824324304</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.861907022634257</v>
+        <v>-1.726402775643172</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8387851387655383</v>
+        <v>0.7932691983425377</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.545257001117379</v>
       </c>
       <c r="E20" t="n">
-        <v>3.599771008665263</v>
+        <v>2.849228240527526</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.048837341406033</v>
+        <v>-1.903543257632464</v>
       </c>
       <c r="G20" t="n">
-        <v>1.061550127058292</v>
+        <v>0.9459213651603952</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.703061698816484</v>
       </c>
       <c r="E21" t="n">
-        <v>3.887390082357991</v>
+        <v>3.083986709007854</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.311882101111904</v>
+        <v>-2.12228276945868</v>
       </c>
       <c r="G21" t="n">
-        <v>1.170722268672134</v>
+        <v>1.039005019162977</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.847557510722452</v>
       </c>
       <c r="E22" t="n">
-        <v>4.124185685898658</v>
+        <v>3.267169065221012</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.536356087140907</v>
+        <v>-2.348490150051</v>
       </c>
       <c r="G22" t="n">
-        <v>1.188174538916603</v>
+        <v>1.040682301024034</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.974811992094223</v>
       </c>
       <c r="E23" t="n">
-        <v>4.374871622931583</v>
+        <v>3.489211907432496</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.692600076824133</v>
+        <v>-2.515995715109703</v>
       </c>
       <c r="G23" t="n">
-        <v>1.392941987879875</v>
+        <v>1.200197905217337</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.083035834382874</v>
       </c>
       <c r="E24" t="n">
-        <v>4.508928528156747</v>
+        <v>3.645845636428165</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.843775015762907</v>
+        <v>-2.693453355850904</v>
       </c>
       <c r="G24" t="n">
-        <v>1.476049169372888</v>
+        <v>1.297399743629322</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.170831440214354</v>
       </c>
       <c r="E25" t="n">
-        <v>4.72242638168699</v>
+        <v>3.866861372220005</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.972091347578516</v>
+        <v>-2.768770020539814</v>
       </c>
       <c r="G25" t="n">
-        <v>1.548724267610803</v>
+        <v>1.370039466467985</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.236777014731494</v>
       </c>
       <c r="E26" t="n">
-        <v>4.822954727469958</v>
+        <v>3.992441599879724</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.113166610031019</v>
+        <v>-2.911274327137938</v>
       </c>
       <c r="G26" t="n">
-        <v>1.553093739339026</v>
+        <v>1.366143293184919</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.277914278268534</v>
       </c>
       <c r="E27" t="n">
-        <v>4.949133897234243</v>
+        <v>4.109889145235683</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.066148739941526</v>
+        <v>-2.877262100599082</v>
       </c>
       <c r="G27" t="n">
-        <v>1.556547720131451</v>
+        <v>1.384519593254661</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.291773908954369</v>
       </c>
       <c r="E28" t="n">
-        <v>4.975578837936686</v>
+        <v>4.174316286161933</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.037990532058099</v>
+        <v>-2.839578151586204</v>
       </c>
       <c r="G28" t="n">
-        <v>1.575605911517797</v>
+        <v>1.411124943095088</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.277806696528898</v>
       </c>
       <c r="E29" t="n">
-        <v>4.996233191734082</v>
+        <v>4.213317053915912</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.179969696953542</v>
+        <v>-2.94595868626257</v>
       </c>
       <c r="G29" t="n">
-        <v>1.585257296306658</v>
+        <v>1.407466638875953</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.235751038736703</v>
       </c>
       <c r="E30" t="n">
-        <v>4.988844612655956</v>
+        <v>4.245394002147446</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.108221678144284</v>
+        <v>-2.906928642316108</v>
       </c>
       <c r="G30" t="n">
-        <v>1.560009019971996</v>
+        <v>1.390538900413487</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.166826685728724</v>
       </c>
       <c r="E31" t="n">
-        <v>4.952238393478891</v>
+        <v>4.259034268162239</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.058667757880873</v>
+        <v>-2.84557489167999</v>
       </c>
       <c r="G31" t="n">
-        <v>1.437741271507696</v>
+        <v>1.273399364999286</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.073819573743342</v>
       </c>
       <c r="E32" t="n">
-        <v>4.804588796051721</v>
+        <v>4.18865552127228</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.032792483090514</v>
+        <v>-2.806917509267022</v>
       </c>
       <c r="G32" t="n">
-        <v>1.403791256877869</v>
+        <v>1.284497481633393</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.960922206864169</v>
       </c>
       <c r="E33" t="n">
-        <v>4.659370342442068</v>
+        <v>4.093439584583788</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.090702621585712</v>
+        <v>-2.878238583602556</v>
       </c>
       <c r="G33" t="n">
-        <v>1.30468097666834</v>
+        <v>1.169224303490041</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.831489666539013</v>
       </c>
       <c r="E34" t="n">
-        <v>4.493951316018521</v>
+        <v>4.003070077592735</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.87674671762723</v>
+        <v>-2.624374349923095</v>
       </c>
       <c r="G34" t="n">
-        <v>1.203356684402215</v>
+        <v>1.066974761557289</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.689238619597677</v>
       </c>
       <c r="E35" t="n">
-        <v>4.276673174133793</v>
+        <v>3.82061474682626</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.824270972361858</v>
+        <v>-2.559645298261854</v>
       </c>
       <c r="G35" t="n">
-        <v>1.162182769276984</v>
+        <v>1.029418285965851</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.5399983212794</v>
       </c>
       <c r="E36" t="n">
-        <v>4.098927650833167</v>
+        <v>3.682126157963847</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.780912931293191</v>
+        <v>-2.522540163971209</v>
       </c>
       <c r="G36" t="n">
-        <v>1.13275043709983</v>
+        <v>1.007520913829242</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.389625868278989</v>
       </c>
       <c r="E37" t="n">
-        <v>3.772151669693213</v>
+        <v>3.403339955511784</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.796958724457079</v>
+        <v>-2.533746236565102</v>
       </c>
       <c r="G37" t="n">
-        <v>1.094063778494377</v>
+        <v>0.9911616214375056</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.24248490780426</v>
       </c>
       <c r="E38" t="n">
-        <v>3.561614371127905</v>
+        <v>3.2607795362114</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.74495505779551</v>
+        <v>-2.499347320317188</v>
       </c>
       <c r="G38" t="n">
-        <v>1.053872445579388</v>
+        <v>0.9586565088908946</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.102001572738913</v>
       </c>
       <c r="E39" t="n">
-        <v>3.31143832778074</v>
+        <v>3.040246857595544</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.766357174342599</v>
+        <v>-2.480015884467658</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9533142136832584</v>
+        <v>0.8574102864713937</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9726376580896468</v>
       </c>
       <c r="E40" t="n">
-        <v>3.086533737753954</v>
+        <v>2.826764862002896</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.81836816005229</v>
+        <v>-2.543165851496799</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8460175781504168</v>
+        <v>0.7780370393614318</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8558761481215563</v>
       </c>
       <c r="E41" t="n">
-        <v>2.794492739154802</v>
+        <v>2.542386906786406</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.707860902077046</v>
+        <v>-2.450245046314909</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8326712939018158</v>
+        <v>0.7606719877737378</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7517115450660472</v>
       </c>
       <c r="E42" t="n">
-        <v>2.472130144031798</v>
+        <v>2.255666856171205</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.725056395716604</v>
+        <v>-2.41963190770757</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8127958088086268</v>
+        <v>0.7431867818127245</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6583717370470115</v>
       </c>
       <c r="E43" t="n">
-        <v>2.285909163007081</v>
+        <v>2.082986724090972</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.577432414957858</v>
+        <v>-2.280707225561281</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7315366869661598</v>
+        <v>0.6504099179105471</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5756655590665293</v>
       </c>
       <c r="E44" t="n">
-        <v>1.942509793822359</v>
+        <v>1.777213361454838</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.49599153675372</v>
+        <v>-2.208477979338069</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7751283276540203</v>
+        <v>0.713783725828054</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5011950570540908</v>
       </c>
       <c r="E45" t="n">
-        <v>1.81062603596845</v>
+        <v>1.655420741197725</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.521253841263948</v>
+        <v>-2.236406247126363</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6767749590043354</v>
+        <v>0.6005989160818868</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.432525427212942</v>
       </c>
       <c r="E46" t="n">
-        <v>1.586526541234971</v>
+        <v>1.480615035559024</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.455570873664273</v>
+        <v>-2.134233555198882</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6180993700598187</v>
+        <v>0.5491002637406645</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3681730782361644</v>
       </c>
       <c r="E47" t="n">
-        <v>1.418120733257388</v>
+        <v>1.331279617381323</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.362790960158712</v>
+        <v>-2.031174038607409</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5192281787555748</v>
+        <v>0.4684236161444919</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3078745781354161</v>
       </c>
       <c r="E48" t="n">
-        <v>1.286494361929067</v>
+        <v>1.220463739543645</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.362900135959849</v>
+        <v>-2.031840681907094</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4621432629360171</v>
+        <v>0.4079286338212357</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2510692225606095</v>
       </c>
       <c r="E49" t="n">
-        <v>1.161737527182958</v>
+        <v>1.142795220725194</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.316382705785629</v>
+        <v>-1.968419300176801</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4038592430659727</v>
+        <v>0.3648566455499646</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1968083669838157</v>
       </c>
       <c r="E50" t="n">
-        <v>1.034821573241162</v>
+        <v>1.010981603749111</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.285304807622608</v>
+        <v>-1.908784915928436</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3412051415470284</v>
+        <v>0.3214644489234008</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1451497253892669</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8121291655089412</v>
+        <v>0.8242342611803599</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.189805257819427</v>
+        <v>-1.825570388396315</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2618325043577431</v>
+        <v>0.2426590379634912</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.09570061161148999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7003862082426062</v>
+        <v>0.7568313172722553</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.149279688373579</v>
+        <v>-1.760036241441767</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1922960579223738</v>
+        <v>0.179762797935878</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04805071280360215</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5316601919097305</v>
+        <v>0.6069201339757035</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.123584950103537</v>
+        <v>-1.723713635379389</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1860108253484851</v>
+        <v>0.1585015730651174</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.001585045413334716</v>
       </c>
       <c r="E54" t="n">
-        <v>0.38915161586687</v>
+        <v>0.4834734088432502</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.088032673855893</v>
+        <v>-1.703696038768518</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1213824105989074</v>
+        <v>0.1223985384463696</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04337600403936489</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3501435290647712</v>
+        <v>0.4578036773209547</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.050489006598666</v>
+        <v>-1.657518334411246</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07609214082630356</v>
+        <v>0.07933508906457298</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08662937403650606</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2696681552919254</v>
+        <v>0.3840295020235398</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.076104455180731</v>
+        <v>-1.68507699026943</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01364846194083739</v>
+        <v>0.004881462133260806</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.128172877186114</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09830972131820506</v>
+        <v>0.2287174711343841</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.0481981445368</v>
+        <v>-1.632402410863438</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04087532095087069</v>
+        <v>0.04218604048520228</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.168084715193204</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.04144567278981468</v>
+        <v>0.08852964326654995</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.004451583997046</v>
+        <v>-1.61443414772644</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02229355361924892</v>
+        <v>-0.01532459996672561</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2064592214599746</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.111366979172212</v>
+        <v>0.02870130424297946</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.076458209173245</v>
+        <v>-1.68280198614516</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.03154605028551696</v>
+        <v>-0.00493094171426195</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2431450056972839</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2904915331229654</v>
+        <v>-0.1339907668348277</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.148918005412268</v>
+        <v>-1.761874542361485</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.04637932114402973</v>
+        <v>-0.02387995729947062</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2784428173359004</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3732413010994047</v>
+        <v>-0.1961916972909482</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.142375386312791</v>
+        <v>-1.768916686495218</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.06853346988554944</v>
+        <v>-0.03111849589111657</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3125600718706954</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3860349972148719</v>
+        <v>-0.2255654770831347</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.104135189642718</v>
+        <v>-1.714529449828917</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1200876250083558</v>
+        <v>-0.08621994966988962</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3456730836979406</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5737893188209336</v>
+        <v>-0.3663742041998983</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.178047207013078</v>
+        <v>-1.763583540097733</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1257068242032356</v>
+        <v>-0.08715556798802114</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3774091143115424</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6578943305411071</v>
+        <v>-0.4257487622399683</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.188568948607659</v>
+        <v>-1.790784782439343</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1406730577692795</v>
+        <v>-0.08875965936786853</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4080704557376813</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7821187045364143</v>
+        <v>-0.507727590480998</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.200756383570439</v>
+        <v>-1.822504927074979</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1374215706415356</v>
+        <v>-0.09204957149824755</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4379745698301065</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9129607178744379</v>
+        <v>-0.5907591418100948</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.237526061488872</v>
+        <v>-1.867467059523493</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1924089692537568</v>
+        <v>-0.127858014430126</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4671093686199583</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.017058929378413</v>
+        <v>-0.6456337050971176</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.155111749884644</v>
+        <v>-1.815192588081447</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1991205363806924</v>
+        <v>-0.1609395020162639</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4946800725127835</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.121215693267355</v>
+        <v>-0.739366924620436</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.199083371154119</v>
+        <v>-1.851739035032191</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2290017701759332</v>
+        <v>-0.1803856029530223</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5197182805880048</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.231199029381272</v>
+        <v>-0.8442250972876388</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.219713938045122</v>
+        <v>-1.864217402157779</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2346368273084085</v>
+        <v>-0.1984355954607043</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5412272192509573</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.318980033020206</v>
+        <v>-0.864194510165047</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.195676964174481</v>
+        <v>-1.872937438073246</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.230336276616658</v>
+        <v>-0.1829661773363433</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5579424412643935</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.377847137057222</v>
+        <v>-0.9120025324912667</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.202254348752532</v>
+        <v>-1.900751040774311</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2772208790382812</v>
+        <v>-0.2179762341023586</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5689999785983069</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.434344089344394</v>
+        <v>-0.9591609892967499</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.259685699516483</v>
+        <v>-1.979248441792463</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3291458659325504</v>
+        <v>-0.2444626494108197</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5737663559513941</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.447840414079475</v>
+        <v>-0.9705152726150916</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.220089649181999</v>
+        <v>-1.984136956016598</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3583927822239732</v>
+        <v>-0.2683770292254344</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5719869299609932</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.449635410631145</v>
+        <v>-0.944202074778827</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.275315526778828</v>
+        <v>-2.013230172297481</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3337178313254538</v>
+        <v>-0.2510784589915059</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5630634593633352</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.423405162006918</v>
+        <v>-0.9345653280862076</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.213196935614069</v>
+        <v>-1.99176462400001</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3771411339065318</v>
+        <v>-0.2838574259219768</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5465811774572558</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.321368482390352</v>
+        <v>-0.8160607901974437</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.185017380506955</v>
+        <v>-2.001253159968179</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3266256736962274</v>
+        <v>-0.2357944567528764</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5227353553314272</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.202243655173335</v>
+        <v>-0.7271715606888585</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.098100634466973</v>
+        <v>-1.94830045673359</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3487279791802235</v>
+        <v>-0.2443912886916402</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4916375048088275</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.115479999223217</v>
+        <v>-0.6604072037293091</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.060821062862778</v>
+        <v>-1.910621997006801</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3129915068882013</v>
+        <v>-0.2125418408725334</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4535760378583616</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9109211431313924</v>
+        <v>-0.4295918724241578</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.977764504785935</v>
+        <v>-1.832209374962718</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3043757674084582</v>
+        <v>-0.2140227282756777</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4089681296495791</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8129922792727242</v>
+        <v>-0.3837563335665412</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.970408861424353</v>
+        <v>-1.85310830695149</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2889417246833486</v>
+        <v>-0.2204964263386816</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.35900158864891</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5305861976041617</v>
+        <v>-0.1681133890161746</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.878086388426353</v>
+        <v>-1.780758906354958</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2425840937264357</v>
+        <v>-0.1606967535869182</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3050752962608047</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3388936181883378</v>
+        <v>-0.01403339789404997</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.938558193763893</v>
+        <v>-1.858638457727565</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1981037986125534</v>
+        <v>-0.1163463715771832</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2483947594076736</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1001810339606527</v>
+        <v>0.1698101123327032</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.876077919637822</v>
+        <v>-1.808661557474829</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.177333559886575</v>
+        <v>-0.09712228176676116</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1906406144474217</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1045229832522375</v>
+        <v>0.3332688537011827</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.737465516878028</v>
+        <v>-1.69244422212387</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1860932406460306</v>
+        <v>-0.09532423561170787</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1347706171776163</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3623053473591274</v>
+        <v>0.5303531318994594</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.624843663916499</v>
+        <v>-1.598212087486972</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1355106891612839</v>
+        <v>-0.05561291026931858</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.08382612505213516</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5239038306635254</v>
+        <v>0.646996801803465</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.485940328993896</v>
+        <v>-1.485106567428782</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1449046874245575</v>
+        <v>-0.05897784264293761</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0410953677818501</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7320130350147001</v>
+        <v>0.7981985772520156</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.40516487424809</v>
+        <v>-1.380157516580743</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.086100405217247</v>
+        <v>-0.02176963175792233</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.01024177177490935</v>
       </c>
       <c r="E88" t="n">
-        <v>0.893938435801835</v>
+        <v>0.9395989274252248</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.296667304902732</v>
+        <v>-1.29692835095238</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01459147531327444</v>
+        <v>0.0547571155536565</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.004955703670251319</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9454200103641083</v>
+        <v>0.9779592784686172</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.077180640247499</v>
+        <v>-1.092831204812854</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02368234300020424</v>
+        <v>0.03278167357042397</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.002105587809054163</v>
       </c>
       <c r="E90" t="n">
-        <v>1.005678343464786</v>
+        <v>0.9697094913949229</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.020067668076811</v>
+        <v>-1.040080995242945</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01766783920060709</v>
+        <v>0.08070253122184214</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02012093530303453</v>
       </c>
       <c r="E91" t="n">
-        <v>1.021740604486946</v>
+        <v>0.9759715469830953</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7533725331206016</v>
+        <v>-0.8075706943771107</v>
       </c>
       <c r="G91" t="n">
-        <v>0.009787664057022184</v>
+        <v>0.07426420855808963</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0605156317284964</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9886316704703547</v>
+        <v>0.9237495287192498</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5144897810241037</v>
+        <v>-0.5976975994287808</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02271073936214459</v>
+        <v>0.04724533249882741</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1145805370078711</v>
       </c>
       <c r="E93" t="n">
-        <v>1.049606660366212</v>
+        <v>0.9252505435047268</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3203703272354993</v>
+        <v>-0.4048711774748823</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.004249050397657622</v>
+        <v>0.068654158173361</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1742650041227941</v>
       </c>
       <c r="E94" t="n">
-        <v>1.1097728954447</v>
+        <v>1.008191216652988</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1120226438997162</v>
+        <v>-0.2222731252700487</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06510754544425559</v>
+        <v>-0.01000792142751279</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.230382178485193</v>
       </c>
       <c r="E95" t="n">
-        <v>1.10175304846614</v>
+        <v>1.006755463379923</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03759455763064289</v>
+        <v>-0.06515572917771868</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03945306193887878</v>
+        <v>0.009573581899483615</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2743656911170963</v>
       </c>
       <c r="E96" t="n">
-        <v>1.089146597998435</v>
+        <v>1.035276574066016</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1145842347358735</v>
+        <v>0.006863704332691994</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1031940421037881</v>
+        <v>-0.04334252609450114</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3000037135733737</v>
       </c>
       <c r="E97" t="n">
-        <v>1.065288330886081</v>
+        <v>1.028283833507099</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2084308995050669</v>
+        <v>0.1015288826500813</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1137401805254387</v>
+        <v>-0.04144018350372395</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3053520690161174</v>
       </c>
       <c r="E98" t="n">
-        <v>1.038326177449756</v>
+        <v>1.03753206072863</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2281252381572617</v>
+        <v>0.1427131664268172</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1230219533841907</v>
+        <v>-0.03180892609719537</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2941108939119513</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9757391672052542</v>
+        <v>0.982772162528836</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2468302854717712</v>
+        <v>0.1716429239663311</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1299665102096441</v>
+        <v>-0.04449710593558522</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2744368003906902</v>
       </c>
       <c r="E100" t="n">
-        <v>0.875312068254626</v>
+        <v>0.8835216005636548</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2823819517987387</v>
+        <v>0.2049043381521096</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0966697206246141</v>
+        <v>-0.02020701498409381</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2556434325269565</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9058831223352689</v>
+        <v>0.8879075401501502</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2801148766432662</v>
+        <v>0.1951218204177476</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.163742697446598</v>
+        <v>-0.08747699618466737</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2483412041269768</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9056495227160744</v>
+        <v>0.877774318026658</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2388519130992298</v>
+        <v>0.1654144140153799</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1336693386381815</v>
+        <v>-0.05534820469560991</v>
       </c>
     </row>
   </sheetData>
